--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/121.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/121.xlsx
@@ -479,13 +479,13 @@
         <v>-7.163551784889124</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.69878030010244</v>
+        <v>-13.76405852207128</v>
       </c>
       <c r="F2" t="n">
-        <v>4.001842941974265</v>
+        <v>4.055573752836708</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.591436867990451</v>
+        <v>-9.560735417826605</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.89604496384286</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.28704365138687</v>
+        <v>-14.34900952073676</v>
       </c>
       <c r="F3" t="n">
-        <v>4.214776155392098</v>
+        <v>4.270182781018282</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.258944745021976</v>
+        <v>-9.229814371199137</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.519505091408389</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.90734386772501</v>
+        <v>-14.97009527524541</v>
       </c>
       <c r="F4" t="n">
-        <v>4.268140381774973</v>
+        <v>4.327788913521877</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.219733298011006</v>
+        <v>-9.193614153841763</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-6.069894544130011</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.51609667295675</v>
+        <v>-15.58280195593534</v>
       </c>
       <c r="F5" t="n">
-        <v>4.262955829849649</v>
+        <v>4.319069439829287</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.877029178825985</v>
+        <v>-8.849064019956058</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.571843066110164</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.18743068577194</v>
+        <v>-16.24692210988474</v>
       </c>
       <c r="F6" t="n">
-        <v>4.248659035146485</v>
+        <v>4.305479629479576</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.477622296033449</v>
+        <v>-8.446174584607622</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.057979619845781</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.7292949157853</v>
+        <v>-16.78938858582882</v>
       </c>
       <c r="F7" t="n">
-        <v>4.474815474434461</v>
+        <v>4.538417881639566</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.439576063975393</v>
+        <v>-8.416965656967731</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.550829926439234</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.71502748904169</v>
+        <v>-17.77622091252392</v>
       </c>
       <c r="F8" t="n">
-        <v>4.628073971499706</v>
+        <v>4.692592839903732</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.646077773344058</v>
+        <v>-7.608948002484923</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.080453490711522</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.34509456329976</v>
+        <v>-18.40526678716033</v>
       </c>
       <c r="F9" t="n">
-        <v>4.611499116102081</v>
+        <v>4.668555371886323</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.236288694398032</v>
+        <v>-7.202301076220912</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.662493835935013</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.08537264287948</v>
+        <v>-19.14526992838037</v>
       </c>
       <c r="F10" t="n">
-        <v>4.750251341618694</v>
+        <v>4.809428550463296</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.412651922625045</v>
+        <v>-6.371227876433824</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.312491598272927</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.96541105529462</v>
+        <v>-20.02067366558954</v>
       </c>
       <c r="F11" t="n">
-        <v>4.926342814839909</v>
+        <v>4.988688360972209</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.155558371722071</v>
+        <v>-6.115129340546821</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.037888235746628</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.90308178481904</v>
+        <v>-20.96326710098246</v>
       </c>
       <c r="F12" t="n">
-        <v>5.282479636740542</v>
+        <v>5.342992260475</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.54094021481724</v>
+        <v>-5.505761197081522</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.832273228916154</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.57118199883232</v>
+        <v>-21.63134113039005</v>
       </c>
       <c r="F13" t="n">
-        <v>5.416256787177299</v>
+        <v>5.475722026684418</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.102583731070569</v>
+        <v>-5.077930924819598</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.691858357109027</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.38404380536657</v>
+        <v>-22.44161066096164</v>
       </c>
       <c r="F14" t="n">
-        <v>5.701092927801891</v>
+        <v>5.762050689832968</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.175360659213845</v>
+        <v>-4.149398622678702</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.599926443661069</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.37424085389199</v>
+        <v>-23.43361444727922</v>
       </c>
       <c r="F15" t="n">
-        <v>5.902897683804257</v>
+        <v>5.970637258707348</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.749756078435014</v>
+        <v>-3.723113242152101</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.540331410200158</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.04460603629689</v>
+        <v>-24.09935804678099</v>
       </c>
       <c r="F16" t="n">
-        <v>6.197788713011295</v>
+        <v>6.262281396809637</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.51823179498193</v>
+        <v>-3.497663787217578</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.4984113661722</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.92798298593668</v>
+        <v>-24.97879421326542</v>
       </c>
       <c r="F17" t="n">
-        <v>6.55227590475387</v>
+        <v>6.613757358898615</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.400283238680819</v>
+        <v>-3.382569352935964</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.454397417936915</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.6731575867792</v>
+        <v>-25.71824747776611</v>
       </c>
       <c r="F18" t="n">
-        <v>6.418498754317113</v>
+        <v>6.486081221586103</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.015683750402275</v>
+        <v>-3.000509771408714</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.396068751525807</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.31392107245896</v>
+        <v>-26.3565757951173</v>
       </c>
       <c r="F19" t="n">
-        <v>6.543032738947611</v>
+        <v>6.6065042231243</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.639266951399808</v>
+        <v>-2.617730113225169</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.306890468346977</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.82538497527383</v>
+        <v>-26.86566999111782</v>
       </c>
       <c r="F20" t="n">
-        <v>6.756620567507531</v>
+        <v>6.823522235028751</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.389924043779136</v>
+        <v>-2.373113526930359</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.173030595852605</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.18408788853144</v>
+        <v>-27.22412415062144</v>
       </c>
       <c r="F21" t="n">
-        <v>6.716086797909546</v>
+        <v>6.782621880951198</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.192020794023604</v>
+        <v>-2.169829340706879</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.986842031278467</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.68994828573005</v>
+        <v>-27.73215787009178</v>
       </c>
       <c r="F22" t="n">
-        <v>6.74934124712753</v>
+        <v>6.820065867078535</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.212484063365222</v>
+        <v>-2.196406715475582</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.739558611035364</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.91419324880313</v>
+        <v>-27.95366654187094</v>
       </c>
       <c r="F23" t="n">
-        <v>6.782176742654579</v>
+        <v>6.849444994655368</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.27421427126396</v>
+        <v>-2.263976090441731</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.433422753751087</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.33047610995866</v>
+        <v>-28.36706909640128</v>
       </c>
       <c r="F24" t="n">
-        <v>6.984819406038816</v>
+        <v>7.054679934002266</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.584672048549811</v>
+        <v>-2.576934497570351</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.073132880485856</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.23299082299916</v>
+        <v>-28.26779016395247</v>
       </c>
       <c r="F25" t="n">
-        <v>6.959184677074716</v>
+        <v>7.02831203607903</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.472313905562117</v>
+        <v>-2.468674245372118</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.6688006955230181</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.7068536320526</v>
+        <v>-28.74512243325896</v>
       </c>
       <c r="F26" t="n">
-        <v>6.967537566287738</v>
+        <v>7.037686124913706</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.553315983243877</v>
+        <v>-2.553433813969452</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.2404352444299379</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.56967248287699</v>
+        <v>-28.60796746868904</v>
       </c>
       <c r="F27" t="n">
-        <v>7.137187626510824</v>
+        <v>7.214589320911108</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.636255721746211</v>
+        <v>-2.634645368496679</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.194569119920554</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.81538882261051</v>
+        <v>-28.85168068608777</v>
       </c>
       <c r="F28" t="n">
-        <v>6.948082404264932</v>
+        <v>7.025274621819749</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.803077844555485</v>
+        <v>-2.800197537930305</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6133899089277802</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.14037905605067</v>
+        <v>-29.18705311568143</v>
       </c>
       <c r="F29" t="n">
-        <v>7.000503984843204</v>
+        <v>7.077879494637805</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.90255316154692</v>
+        <v>-2.903574361168574</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9956060315269614</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.84161270520248</v>
+        <v>-28.88713464218317</v>
       </c>
       <c r="F30" t="n">
-        <v>6.842767920206088</v>
+        <v>6.921190814228027</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.895286933469762</v>
+        <v>-2.893035057380985</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.326582136162314</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.76121287345144</v>
+        <v>-28.80263691964267</v>
       </c>
       <c r="F31" t="n">
-        <v>6.790058308965299</v>
+        <v>6.870418863807814</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.810029857364442</v>
+        <v>-2.80667822783696</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.591016419040769</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.63823687285911</v>
+        <v>-28.68129745690555</v>
       </c>
       <c r="F32" t="n">
-        <v>6.893461316809251</v>
+        <v>6.965678459284212</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.315549854689169</v>
+        <v>-3.314607208884564</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.784025455871196</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.53292238880027</v>
+        <v>-28.57703035707404</v>
       </c>
       <c r="F33" t="n">
-        <v>7.104247392561041</v>
+        <v>7.185445854785426</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.620613603204228</v>
+        <v>-3.619212726800163</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.904129407971322</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.13537461301125</v>
+        <v>-28.1783435509378</v>
       </c>
       <c r="F34" t="n">
-        <v>7.08209521615284</v>
+        <v>7.153683928091398</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.824526219964111</v>
+        <v>-3.821986313212816</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.954632915070444</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.01878765620569</v>
+        <v>-28.06950723741453</v>
       </c>
       <c r="F35" t="n">
-        <v>7.030642465984857</v>
+        <v>7.101864593443847</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.074968881023489</v>
+        <v>-4.075348557805899</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.946611575558563</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.71293836952012</v>
+        <v>-27.76380196606023</v>
       </c>
       <c r="F36" t="n">
-        <v>7.199559357248806</v>
+        <v>7.272116899597653</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.281146466174992</v>
+        <v>-4.281578512168768</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.891652068414649</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.26954134917938</v>
+        <v>-27.32240806805427</v>
       </c>
       <c r="F37" t="n">
-        <v>6.920614752902991</v>
+        <v>6.986992728310542</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.680199856790802</v>
+        <v>-4.676573288903644</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.807743989427862</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.06988373084306</v>
+        <v>-27.12455718751011</v>
       </c>
       <c r="F38" t="n">
-        <v>7.289320185531681</v>
+        <v>7.357216868068872</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.695557128024147</v>
+        <v>-4.691315221903428</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.712801619111344</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.75469963223135</v>
+        <v>-26.80328516807699</v>
       </c>
       <c r="F39" t="n">
-        <v>7.197490773399814</v>
+        <v>7.260124350194632</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.861750820297017</v>
+        <v>-4.856880483639895</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.623900068861581</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.37775914111521</v>
+        <v>-26.43672687311435</v>
       </c>
       <c r="F40" t="n">
-        <v>7.305371348815637</v>
+        <v>7.367324125862685</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.93299913236169</v>
+        <v>-4.936246023466438</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.557013136996886</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.07558879152818</v>
+        <v>-26.14412699690461</v>
       </c>
       <c r="F41" t="n">
-        <v>7.415346692686136</v>
+        <v>7.474602455347788</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.307294978303797</v>
+        <v>-5.308774408524912</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.521569415874461</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.37889498810857</v>
+        <v>-25.43981347323112</v>
       </c>
       <c r="F42" t="n">
-        <v>7.382851597032972</v>
+        <v>7.443338036161746</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.382667365763614</v>
+        <v>-5.385495303177427</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.522845823471757</v>
       </c>
       <c r="E43" t="n">
-        <v>-24.88898101577118</v>
+        <v>-24.94948054720279</v>
       </c>
       <c r="F43" t="n">
-        <v>7.321789096579161</v>
+        <v>7.383349104540957</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.414075800280915</v>
+        <v>-5.416589522426526</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.558422023116539</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.59484934012896</v>
+        <v>-24.65695922481011</v>
       </c>
       <c r="F44" t="n">
-        <v>7.537262216748289</v>
+        <v>7.593637672784761</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.457817184075122</v>
+        <v>-5.460579659974726</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.622156599308999</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.05572140140952</v>
+        <v>-24.11694100949743</v>
       </c>
       <c r="F45" t="n">
-        <v>7.465673504809731</v>
+        <v>7.522677391382606</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.506127781561091</v>
+        <v>-5.50900808818627</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.704689259024676</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.6705327595031</v>
+        <v>-23.7357978891691</v>
       </c>
       <c r="F46" t="n">
-        <v>7.357007391223404</v>
+        <v>7.413618508711028</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.42079215163872</v>
+        <v>-5.417191768357245</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.793669686879559</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.19729838098607</v>
+        <v>-23.26160777254463</v>
       </c>
       <c r="F47" t="n">
-        <v>7.535769694224332</v>
+        <v>7.594135180292747</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.550563057405909</v>
+        <v>-5.5503404882576</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.877239879619278</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.47042681951628</v>
+        <v>-22.52582035283962</v>
       </c>
       <c r="F48" t="n">
-        <v>7.536921816874404</v>
+        <v>7.602147669631883</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.813273206227985</v>
+        <v>-5.812985175565466</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.94260346383126</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.16312428721528</v>
+        <v>-22.22306084962471</v>
       </c>
       <c r="F49" t="n">
-        <v>7.595627702816704</v>
+        <v>7.660853555574183</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.686827745382594</v>
+        <v>-5.675083949733565</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.980125336382115</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.67856506674016</v>
+        <v>-21.74333268889818</v>
       </c>
       <c r="F50" t="n">
-        <v>7.512884348856995</v>
+        <v>7.579759831772532</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.728395806905074</v>
+        <v>-5.717267349489607</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>1.983204318689857</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.13176503855547</v>
+        <v>-21.19077204746313</v>
       </c>
       <c r="F51" t="n">
-        <v>7.601047916193179</v>
+        <v>7.662398447309506</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.849133023711472</v>
+        <v>-5.835634859481653</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>1.947600029922035</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.79097239558534</v>
+        <v>-20.84956045080206</v>
       </c>
       <c r="F52" t="n">
-        <v>7.349701886237721</v>
+        <v>7.403537435522899</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.974504915723841</v>
+        <v>-5.960941289979813</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>1.873919319573714</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.06415320332692</v>
+        <v>-20.12310784302321</v>
       </c>
       <c r="F53" t="n">
-        <v>7.505893059139513</v>
+        <v>7.566667528930806</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.023182097689379</v>
+        <v>-6.006070457875243</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>1.763152598162086</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.15703990863508</v>
+        <v>-19.20779876675246</v>
       </c>
       <c r="F54" t="n">
-        <v>7.416053677039589</v>
+        <v>7.477247100521817</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.068180342556391</v>
+        <v>-6.046774427410169</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>1.619626219634399</v>
       </c>
       <c r="E55" t="n">
-        <v>-18.76843417568697</v>
+        <v>-18.81950724907254</v>
       </c>
       <c r="F55" t="n">
-        <v>7.384213196528511</v>
+        <v>7.442631051808293</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.499872844156624</v>
+        <v>-6.485589141756301</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>1.447603870210248</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.63622810159122</v>
+        <v>-18.69060043529291</v>
       </c>
       <c r="F56" t="n">
-        <v>7.127499322407947</v>
+        <v>7.182146594469311</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.411617630700549</v>
+        <v>-6.38977966956055</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>1.249936268040907</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.3334031368621</v>
+        <v>-18.38897996242522</v>
       </c>
       <c r="F57" t="n">
-        <v>7.140277409981471</v>
+        <v>7.194165328478015</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.319212157243647</v>
+        <v>-6.293197751497137</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.03291508696149</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.76781565409953</v>
+        <v>-17.81256514521255</v>
       </c>
       <c r="F58" t="n">
-        <v>6.902861590249611</v>
+        <v>6.949260711520687</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.483572927118676</v>
+        <v>-6.465034226294791</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.7988321372447075</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.24138724913657</v>
+        <v>-17.2934815221438</v>
       </c>
       <c r="F59" t="n">
-        <v>6.947427789122846</v>
+        <v>7.005452875317376</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.590523949032736</v>
+        <v>-6.574485878051622</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.5523804670953453</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.98417586750802</v>
+        <v>-17.03132125004107</v>
       </c>
       <c r="F60" t="n">
-        <v>7.083718661705214</v>
+        <v>7.141010578940608</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.941607142036462</v>
+        <v>-6.928475562286211</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2979646741394346</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.61609886541573</v>
+        <v>-16.66515572416368</v>
       </c>
       <c r="F61" t="n">
-        <v>6.882961289930187</v>
+        <v>6.935749454988026</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.759178994239851</v>
+        <v>-6.737904002122046</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03767279993667222</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.22378801076341</v>
+        <v>-16.2684982249679</v>
       </c>
       <c r="F62" t="n">
-        <v>6.882306674788101</v>
+        <v>6.93417837864702</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.758445825280714</v>
+        <v>-6.733033665464924</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2212601364777748</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.72663399495455</v>
+        <v>-15.76782237969462</v>
       </c>
       <c r="F63" t="n">
-        <v>6.785737849027529</v>
+        <v>6.836405061025009</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.760658424460966</v>
+        <v>-6.737079187043017</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.475049295408531</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.51604430374538</v>
+        <v>-15.55761236526786</v>
       </c>
       <c r="F64" t="n">
-        <v>6.596580257570271</v>
+        <v>6.646461931397247</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.511943947376696</v>
+        <v>-6.48701620276605</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7178530998993611</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.27866776092205</v>
+        <v>-15.3185338230751</v>
       </c>
       <c r="F65" t="n">
-        <v>6.562749747027251</v>
+        <v>6.611296005964371</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.600762129854965</v>
+        <v>-6.5772090770427</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.9418855628593797</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.89124033522969</v>
+        <v>-14.92906399813944</v>
       </c>
       <c r="F66" t="n">
-        <v>6.564163715734157</v>
+        <v>6.615642650507824</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.681489269177049</v>
+        <v>-6.658551554598344</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.141940432997552</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.78650191249588</v>
+        <v>-14.81878753130358</v>
       </c>
       <c r="F67" t="n">
-        <v>6.517869332885814</v>
+        <v>6.568667467911711</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.637368208600432</v>
+        <v>-6.618057061908885</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.309966747123815</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.42409387753406</v>
+        <v>-14.45199357488978</v>
       </c>
       <c r="F68" t="n">
-        <v>6.233399776740789</v>
+        <v>6.282967235299565</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.492240031599898</v>
+        <v>-6.471056685601986</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.439361978942543</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.58917472406539</v>
+        <v>-14.61448214545844</v>
       </c>
       <c r="F69" t="n">
-        <v>6.213866060900934</v>
+        <v>6.265344995674601</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.399140666092384</v>
+        <v>-6.378546473722349</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.523853581955682</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.44629842315363</v>
+        <v>-14.47587393527309</v>
       </c>
       <c r="F70" t="n">
-        <v>6.160920788208994</v>
+        <v>6.21208550771446</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.487238771914359</v>
+        <v>-6.466775502572741</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.55721066010617</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.42173726302255</v>
+        <v>-14.45387886649899</v>
       </c>
       <c r="F71" t="n">
-        <v>6.244214018888055</v>
+        <v>6.30250095113942</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.328834999832315</v>
+        <v>-6.30998208374023</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.534314895478998</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.37649026440154</v>
+        <v>-14.40861877557514</v>
       </c>
       <c r="F72" t="n">
-        <v>5.86985271143174</v>
+        <v>5.923583522294184</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.421201196380693</v>
+        <v>-6.403683695178463</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.452457002503277</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.60444034917884</v>
+        <v>-14.64030016666232</v>
       </c>
       <c r="F73" t="n">
-        <v>5.836991031299008</v>
+        <v>5.8866894128862</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.125446075186101</v>
+        <v>-6.112654895309734</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.310009550278305</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.74891391103728</v>
+        <v>-14.78511412839466</v>
       </c>
       <c r="F74" t="n">
-        <v>5.764224012104695</v>
+        <v>5.815100700947641</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.897810205677009</v>
+        <v>-5.882138719175463</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.106402474298861</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.00938527607343</v>
+        <v>-15.04802066175936</v>
       </c>
       <c r="F75" t="n">
-        <v>5.499026325742691</v>
+        <v>5.54217855590902</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.702747985638132</v>
+        <v>-5.686670637748493</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8467491571832829</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.12283008019698</v>
+        <v>-15.16177968115112</v>
       </c>
       <c r="F76" t="n">
-        <v>5.511673490287799</v>
+        <v>5.559198549603265</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.457594614926812</v>
+        <v>-5.434329592777065</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5332279628395389</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.33791043128086</v>
+        <v>-15.37151837267557</v>
       </c>
       <c r="F77" t="n">
-        <v>5.450349143777154</v>
+        <v>5.496826818865281</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.441883851516741</v>
+        <v>-5.418304614098792</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1729488281019411</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.7349345149562</v>
+        <v>-15.77439471572116</v>
       </c>
       <c r="F78" t="n">
-        <v>5.2732102863286</v>
+        <v>5.313822609743634</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.9755491165973</v>
+        <v>-4.947086450219388</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2248629776524374</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.98698752926511</v>
+        <v>-16.02571456107094</v>
       </c>
       <c r="F79" t="n">
-        <v>4.870988558425092</v>
+        <v>4.908589652186529</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.072720188288591</v>
+        <v>-5.045213260018125</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.6546056075767328</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.57874652540829</v>
+        <v>-16.62413753936055</v>
       </c>
       <c r="F80" t="n">
-        <v>5.054359352026307</v>
+        <v>5.096045244274363</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.981204991424926</v>
+        <v>-4.950987956466222</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>1.10219168774855</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.18584970048197</v>
+        <v>-17.22911976137387</v>
       </c>
       <c r="F81" t="n">
-        <v>4.734514393602939</v>
+        <v>4.771801272096175</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.934557116399856</v>
+        <v>-4.902192943775109</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>1.559767578474055</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.85493183720838</v>
+        <v>-17.90667261803888</v>
       </c>
       <c r="F82" t="n">
-        <v>4.879629478300631</v>
+        <v>4.925766753514874</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.816241975619177</v>
+        <v>-4.789468216307847</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.017178256455194</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.64238148392683</v>
+        <v>-18.69569334109834</v>
       </c>
       <c r="F83" t="n">
-        <v>4.729722610762868</v>
+        <v>4.768030688877758</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.733158221785584</v>
+        <v>-4.706030970297527</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.459954773280831</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.53172852366244</v>
+        <v>-19.58589138051866</v>
       </c>
       <c r="F84" t="n">
-        <v>4.788559419733584</v>
+        <v>4.829826358290705</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.578276279167964</v>
+        <v>-4.55973757834408</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.881112001018498</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.59219196153941</v>
+        <v>-20.65015158621974</v>
       </c>
       <c r="F85" t="n">
-        <v>4.524880440501221</v>
+        <v>4.564628671928702</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.316639699178911</v>
+        <v>-4.297105983339056</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>3.267628841587329</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.72387752687537</v>
+        <v>-21.78607905767641</v>
       </c>
       <c r="F86" t="n">
-        <v>4.449364037710145</v>
+        <v>4.486127224089712</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.07088408253687</v>
+        <v>-4.057543025941151</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>3.611193244729761</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.88618598855813</v>
+        <v>-22.94753651967446</v>
       </c>
       <c r="F87" t="n">
-        <v>4.352376258258639</v>
+        <v>4.386678091703961</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.996284140944716</v>
+        <v>-3.980704300563061</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>3.905683495779954</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.17332955783674</v>
+        <v>-24.23309592030922</v>
       </c>
       <c r="F88" t="n">
-        <v>4.155337100490661</v>
+        <v>4.193566624788502</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.123580601474818</v>
+        <v>-4.116052527340826</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.14219265062162</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.91253725193732</v>
+        <v>-25.97229052210696</v>
       </c>
       <c r="F89" t="n">
-        <v>4.178746137971667</v>
+        <v>4.21828489255368</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.150891145202658</v>
+        <v>-4.143834393970968</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.319268591035518</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.50511115421056</v>
+        <v>-27.5724579600284</v>
       </c>
       <c r="F90" t="n">
-        <v>3.892207997977651</v>
+        <v>3.929102107385635</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.228083362757475</v>
+        <v>-4.222440580232692</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>4.43405348193929</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.07295369641578</v>
+        <v>-29.14204177851157</v>
       </c>
       <c r="F91" t="n">
-        <v>3.549975201694931</v>
+        <v>3.583203466307232</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.18587377839575</v>
+        <v>-4.182823271833628</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>4.486500146016819</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.72780768330712</v>
+        <v>-30.79414638180614</v>
       </c>
       <c r="F92" t="n">
-        <v>3.22206538472106</v>
+        <v>3.250554235704656</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.376890476856534</v>
+        <v>-4.376877384553692</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.476843934675314</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.83244773432595</v>
+        <v>-32.89976835553811</v>
       </c>
       <c r="F93" t="n">
-        <v>3.046157203739629</v>
+        <v>3.071084948350275</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.746014863176159</v>
+        <v>-4.752443183871446</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.40350872185824</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.88432580489263</v>
+        <v>-34.95635965512781</v>
       </c>
       <c r="F94" t="n">
-        <v>2.930080846744886</v>
+        <v>2.952049730913302</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.957730492429711</v>
+        <v>-4.969146980507696</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.268687583769857</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.93299626126308</v>
+        <v>-36.9983923139575</v>
       </c>
       <c r="F95" t="n">
-        <v>2.563339259542455</v>
+        <v>2.582584944719792</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.229317222578477</v>
+        <v>-5.251312291352576</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.066080069801041</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.42829753677618</v>
+        <v>-39.4950420966633</v>
       </c>
       <c r="F96" t="n">
-        <v>2.23312519726844</v>
+        <v>2.252475620868511</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.564951498228966</v>
+        <v>-5.596949086374145</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.804629394448575</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.5964090719717</v>
+        <v>-41.65791671072213</v>
       </c>
       <c r="F97" t="n">
-        <v>1.998144545865141</v>
+        <v>2.008225619053269</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.089010196377577</v>
+        <v>-6.124673629318439</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.472725279794481</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.94395061761307</v>
+        <v>-44.01131051573375</v>
       </c>
       <c r="F98" t="n">
-        <v>1.415196669534446</v>
+        <v>1.423156789662215</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.319644203237424</v>
+        <v>-6.359562634601846</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.095110225415456</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.14841947780007</v>
+        <v>-46.2139464535229</v>
       </c>
       <c r="F99" t="n">
-        <v>1.171876221220967</v>
+        <v>1.176785834786614</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.498458875449718</v>
+        <v>-6.527379772427091</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>2.648816037393444</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.47217230917803</v>
+        <v>-48.54243869852957</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9891731350646793</v>
+        <v>0.9876937048435642</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.733347880733126</v>
+        <v>-6.768435252348952</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.192816070297433</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.60976568644949</v>
+        <v>-50.67656261554797</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7859413180525655</v>
+        <v>0.7827729807648678</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.895797174393262</v>
+        <v>-6.935715605757685</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.653938443711559</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.19706657403139</v>
+        <v>-53.26212222685192</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3382500223797426</v>
+        <v>0.3250922580238079</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.236550540454867</v>
+        <v>-7.277922217434721</v>
       </c>
     </row>
   </sheetData>
